--- a/BiDAF/result/combined_result.xlsx
+++ b/BiDAF/result/combined_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74B3E8-2BB4-4FFA-A38F-6DC6A1ED342B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D82D3-50C9-4B27-BD47-AF868EE1F495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>128</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>128</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>128</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>128</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>128</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>128</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>128</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>128</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>128</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>128</v>
@@ -925,6 +925,236 @@
       </c>
       <c r="G21">
         <v>3.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.31</v>
+      </c>
+      <c r="E22">
+        <v>0.43</v>
+      </c>
+      <c r="F22">
+        <v>6.77</v>
+      </c>
+      <c r="G22">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0.53</v>
+      </c>
+      <c r="E23">
+        <v>0.66</v>
+      </c>
+      <c r="F23">
+        <v>4.37</v>
+      </c>
+      <c r="G23">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E24">
+        <v>0.68</v>
+      </c>
+      <c r="F24">
+        <v>3.73</v>
+      </c>
+      <c r="G24">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0.59</v>
+      </c>
+      <c r="E25">
+        <v>0.71</v>
+      </c>
+      <c r="F25">
+        <v>3.43</v>
+      </c>
+      <c r="G25">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>0.6</v>
+      </c>
+      <c r="E26">
+        <v>0.72</v>
+      </c>
+      <c r="F26">
+        <v>3.22</v>
+      </c>
+      <c r="G26">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>0.61</v>
+      </c>
+      <c r="E27">
+        <v>0.72</v>
+      </c>
+      <c r="F27">
+        <v>3.08</v>
+      </c>
+      <c r="G27">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>0.63</v>
+      </c>
+      <c r="E28">
+        <v>0.75</v>
+      </c>
+      <c r="F28">
+        <v>2.98</v>
+      </c>
+      <c r="G28">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>0.62</v>
+      </c>
+      <c r="E29">
+        <v>0.74</v>
+      </c>
+      <c r="F29">
+        <v>2.89</v>
+      </c>
+      <c r="G29">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>0.63</v>
+      </c>
+      <c r="E30">
+        <v>0.75</v>
+      </c>
+      <c r="F30">
+        <v>2.81</v>
+      </c>
+      <c r="G30">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>0.62</v>
+      </c>
+      <c r="E31">
+        <v>0.75</v>
+      </c>
+      <c r="F31">
+        <v>2.75</v>
+      </c>
+      <c r="G31">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>

--- a/BiDAF/result/combined_result.xlsx
+++ b/BiDAF/result/combined_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D82D3-50C9-4B27-BD47-AF868EE1F495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843FBAD8-0F3E-439B-BA02-83BED0BD02D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,7 +929,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>32</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>32</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>32</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>32</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>32</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>32</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>32</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>32</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>32</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>32</v>
@@ -1155,6 +1155,236 @@
       </c>
       <c r="G31">
         <v>3.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.45</v>
+      </c>
+      <c r="E32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F32">
+        <v>6.44</v>
+      </c>
+      <c r="G32">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0.54</v>
+      </c>
+      <c r="E33">
+        <v>0.66</v>
+      </c>
+      <c r="F33">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="G33">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E34">
+        <v>0.68</v>
+      </c>
+      <c r="F34">
+        <v>3.71</v>
+      </c>
+      <c r="G34">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0.59</v>
+      </c>
+      <c r="E35">
+        <v>0.71</v>
+      </c>
+      <c r="F35">
+        <v>3.46</v>
+      </c>
+      <c r="G35">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>0.6</v>
+      </c>
+      <c r="E36">
+        <v>0.72</v>
+      </c>
+      <c r="F36">
+        <v>3.32</v>
+      </c>
+      <c r="G36">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>0.6</v>
+      </c>
+      <c r="E37">
+        <v>0.72</v>
+      </c>
+      <c r="F37">
+        <v>3.2</v>
+      </c>
+      <c r="G37">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>0.62</v>
+      </c>
+      <c r="E38">
+        <v>0.74</v>
+      </c>
+      <c r="F38">
+        <v>3.12</v>
+      </c>
+      <c r="G38">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>0.62</v>
+      </c>
+      <c r="E39">
+        <v>0.73</v>
+      </c>
+      <c r="F39">
+        <v>3.05</v>
+      </c>
+      <c r="G39">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>0.62</v>
+      </c>
+      <c r="E40">
+        <v>0.74</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>0.63</v>
+      </c>
+      <c r="E41">
+        <v>0.75</v>
+      </c>
+      <c r="F41">
+        <v>2.94</v>
+      </c>
+      <c r="G41">
+        <v>3.13</v>
       </c>
     </row>
   </sheetData>
